--- a/等级保护/等级保护三级（2.0与1.0）对比分析表.xlsx
+++ b/等级保护/等级保护三级（2.0与1.0）对比分析表.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="三级差异" sheetId="1" r:id="rId1"/>
+    <sheet name="网络安全等级保护（等保V2.0）" sheetId="2" r:id="rId1"/>
+    <sheet name="网络安全等级保护（三级差异)" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="315">
   <si>
     <t>物理和环境安全</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1840,7 +1841,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1904,6 +1905,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1921,15 +1940,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2230,11 +2240,733 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:D77"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A73" sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="98" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="31.5">
+      <c r="B2" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+    </row>
+    <row r="3" spans="2:4" ht="18.75">
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="27">
+      <c r="B4" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="27"/>
+      <c r="C5" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="40.5">
+      <c r="B6" s="27"/>
+      <c r="C6" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="27">
+      <c r="B7" s="27"/>
+      <c r="C7" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="40.5">
+      <c r="B8" s="27"/>
+      <c r="C8" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="40.5">
+      <c r="B9" s="27"/>
+      <c r="C9" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="27">
+      <c r="B10" s="27"/>
+      <c r="C10" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="27"/>
+      <c r="C11" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="40.5">
+      <c r="B12" s="27"/>
+      <c r="C12" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="27">
+      <c r="B13" s="27"/>
+      <c r="C13" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="67.5">
+      <c r="B14" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="27">
+      <c r="B15" s="30"/>
+      <c r="C15" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="54">
+      <c r="B16" s="30"/>
+      <c r="C16" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="67.5">
+      <c r="B17" s="30"/>
+      <c r="C17" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="54">
+      <c r="B18" s="30"/>
+      <c r="C18" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="27">
+      <c r="B19" s="30"/>
+      <c r="C19" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="67.5">
+      <c r="B20" s="30"/>
+      <c r="C20" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="81">
+      <c r="B21" s="31"/>
+      <c r="C21" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="54">
+      <c r="B22" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="94.5">
+      <c r="B23" s="28"/>
+      <c r="C23" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="67.5">
+      <c r="B24" s="28"/>
+      <c r="C24" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="67.5">
+      <c r="B25" s="28"/>
+      <c r="C25" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="27">
+      <c r="B26" s="28"/>
+      <c r="C26" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="54">
+      <c r="B27" s="28"/>
+      <c r="C27" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="28"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="23"/>
+    </row>
+    <row r="29" spans="2:4" ht="67.5">
+      <c r="B29" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="94.5">
+      <c r="B30" s="28"/>
+      <c r="C30" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="67.5">
+      <c r="B31" s="28"/>
+      <c r="C31" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="40.5">
+      <c r="B32" s="28"/>
+      <c r="C32" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="54">
+      <c r="B33" s="28"/>
+      <c r="C33" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="27">
+      <c r="B34" s="28"/>
+      <c r="C34" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="27">
+      <c r="B35" s="28"/>
+      <c r="C35" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="40.5">
+      <c r="B36" s="28"/>
+      <c r="C36" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="27">
+      <c r="B37" s="28"/>
+      <c r="C37" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="27">
+      <c r="B38" s="28"/>
+      <c r="C38" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="28"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="23"/>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="18"/>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" ht="40.5">
+      <c r="B42" s="28"/>
+      <c r="C42" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" ht="27">
+      <c r="B43" s="28"/>
+      <c r="C43" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" s="28"/>
+      <c r="C44" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" ht="40.5">
+      <c r="B45" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" ht="27">
+      <c r="B46" s="28"/>
+      <c r="C46" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" ht="54">
+      <c r="B47" s="28"/>
+      <c r="C47" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" ht="54">
+      <c r="B48" s="28"/>
+      <c r="C48" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" ht="54">
+      <c r="B49" s="28"/>
+      <c r="C49" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" ht="40.5">
+      <c r="B50" s="28"/>
+      <c r="C50" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" ht="27">
+      <c r="B51" s="28"/>
+      <c r="C51" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="D51" s="23" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" ht="27">
+      <c r="B52" s="28"/>
+      <c r="C52" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="D52" s="23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" ht="54">
+      <c r="B53" s="28"/>
+      <c r="C53" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="D53" s="23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" ht="54">
+      <c r="B54" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="D54" s="23" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" ht="67.5">
+      <c r="B55" s="28"/>
+      <c r="C55" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="D55" s="23" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" ht="40.5">
+      <c r="B56" s="28"/>
+      <c r="C56" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="D56" s="23" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" ht="94.5">
+      <c r="B57" s="28"/>
+      <c r="C57" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="D57" s="23" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" ht="40.5">
+      <c r="B58" s="28"/>
+      <c r="C58" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="D58" s="23" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" ht="40.5">
+      <c r="B59" s="28"/>
+      <c r="C59" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="D59" s="23" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" ht="27">
+      <c r="B60" s="28"/>
+      <c r="C60" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="D60" s="23" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" ht="40.5">
+      <c r="B61" s="28"/>
+      <c r="C61" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="D61" s="23" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" ht="40.5">
+      <c r="B62" s="28"/>
+      <c r="C62" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="D62" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" ht="40.5">
+      <c r="B63" s="28"/>
+      <c r="C63" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="D63" s="23" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" ht="54">
+      <c r="B64" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="C64" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="D64" s="23" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" ht="40.5">
+      <c r="B65" s="30"/>
+      <c r="C65" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="D65" s="23" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" ht="40.5">
+      <c r="B66" s="30"/>
+      <c r="C66" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="D66" s="23" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" ht="94.5">
+      <c r="B67" s="30"/>
+      <c r="C67" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="D67" s="23" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" ht="27">
+      <c r="B68" s="30"/>
+      <c r="C68" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="D68" s="23" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" ht="175.5">
+      <c r="B69" s="30"/>
+      <c r="C69" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="D69" s="23" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" ht="40.5">
+      <c r="B70" s="30"/>
+      <c r="C70" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="D70" s="23" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" ht="40.5">
+      <c r="B71" s="30"/>
+      <c r="C71" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="D71" s="23" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4">
+      <c r="B72" s="30"/>
+      <c r="C72" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="D72" s="23" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" ht="40.5">
+      <c r="B73" s="30"/>
+      <c r="C73" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="D73" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" ht="40.5">
+      <c r="B74" s="30"/>
+      <c r="C74" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="D74" s="23" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" ht="67.5">
+      <c r="B75" s="30"/>
+      <c r="C75" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="D75" s="23" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" ht="67.5">
+      <c r="B76" s="30"/>
+      <c r="C76" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="D76" s="23" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" ht="81">
+      <c r="B77" s="31"/>
+      <c r="C77" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B45:B53"/>
+    <mergeCell ref="B54:B63"/>
+    <mergeCell ref="B64:B77"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="B22:B28"/>
+    <mergeCell ref="B29:B39"/>
+    <mergeCell ref="B41:B44"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="A75" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2250,20 +2982,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45.75" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="26" t="s">
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="32" t="s">
         <v>311</v>
       </c>
-      <c r="H1" s="27"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" ht="18.75">
       <c r="A2" s="4" t="s">
@@ -2292,7 +3024,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="54">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -2301,7 +3033,7 @@
       <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="28" t="s">
         <v>26</v>
       </c>
       <c r="E3" s="7" t="s">
@@ -2316,14 +3048,14 @@
       <c r="H3" s="20"/>
     </row>
     <row r="4" spans="1:8" ht="121.5">
-      <c r="A4" s="31"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="29"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="7" t="s">
         <v>32</v>
       </c>
@@ -2338,14 +3070,14 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="135">
-      <c r="A5" s="31"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="29"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="7" t="s">
         <v>35</v>
       </c>
@@ -2358,14 +3090,14 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="54">
-      <c r="A6" s="31"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="29"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="7" t="s">
         <v>9</v>
       </c>
@@ -2378,14 +3110,14 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="81">
-      <c r="A7" s="31"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="29"/>
+      <c r="D7" s="28"/>
       <c r="E7" s="7" t="s">
         <v>40</v>
       </c>
@@ -2396,14 +3128,14 @@
       <c r="H7" s="20"/>
     </row>
     <row r="8" spans="1:8" ht="108">
-      <c r="A8" s="31"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="29"/>
+      <c r="D8" s="28"/>
       <c r="E8" s="7" t="s">
         <v>42</v>
       </c>
@@ -2416,14 +3148,14 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="54">
-      <c r="A9" s="31"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="29"/>
+      <c r="D9" s="28"/>
       <c r="E9" s="7" t="s">
         <v>15</v>
       </c>
@@ -2436,14 +3168,14 @@
       <c r="H9" s="20"/>
     </row>
     <row r="10" spans="1:8" ht="40.5">
-      <c r="A10" s="31"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="29"/>
+      <c r="D10" s="28"/>
       <c r="E10" s="7" t="s">
         <v>45</v>
       </c>
@@ -2454,14 +3186,14 @@
       <c r="H10" s="20"/>
     </row>
     <row r="11" spans="1:8" ht="94.5">
-      <c r="A11" s="31"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="29"/>
+      <c r="D11" s="28"/>
       <c r="E11" s="7" t="s">
         <v>20</v>
       </c>
@@ -2474,14 +3206,14 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="67.5">
-      <c r="A12" s="31"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="29"/>
+      <c r="D12" s="28"/>
       <c r="E12" s="7" t="s">
         <v>48</v>
       </c>
@@ -2494,7 +3226,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="243">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="29" t="s">
         <v>51</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -2503,7 +3235,7 @@
       <c r="C13" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="29" t="s">
         <v>68</v>
       </c>
       <c r="E13" s="7" t="s">
@@ -2518,14 +3250,14 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="54">
-      <c r="A14" s="24"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="10" t="s">
         <v>54</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="24"/>
+      <c r="D14" s="30"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="9" t="s">
@@ -2534,14 +3266,14 @@
       <c r="H14" s="20"/>
     </row>
     <row r="15" spans="1:8" ht="108">
-      <c r="A15" s="24"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="7" t="s">
         <v>56</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="24"/>
+      <c r="D15" s="30"/>
       <c r="E15" s="7" t="s">
         <v>74</v>
       </c>
@@ -2552,14 +3284,14 @@
       <c r="H15" s="20"/>
     </row>
     <row r="16" spans="1:8" ht="229.5">
-      <c r="A16" s="24"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="7" t="s">
         <v>58</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="24"/>
+      <c r="D16" s="30"/>
       <c r="E16" s="7" t="s">
         <v>71</v>
       </c>
@@ -2570,14 +3302,14 @@
       <c r="H16" s="20"/>
     </row>
     <row r="17" spans="1:8" ht="121.5">
-      <c r="A17" s="24"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="24"/>
+      <c r="D17" s="30"/>
       <c r="E17" s="7" t="s">
         <v>75</v>
       </c>
@@ -2590,14 +3322,14 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="54">
-      <c r="A18" s="24"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="24"/>
+      <c r="D18" s="30"/>
       <c r="E18" s="7" t="s">
         <v>77</v>
       </c>
@@ -2610,14 +3342,14 @@
       <c r="H18" s="20"/>
     </row>
     <row r="19" spans="1:8" ht="148.5">
-      <c r="A19" s="24"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="7" t="s">
         <v>64</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="25"/>
+      <c r="D19" s="31"/>
       <c r="E19" s="7" t="s">
         <v>64</v>
       </c>
@@ -2630,7 +3362,7 @@
       <c r="H19" s="20"/>
     </row>
     <row r="20" spans="1:8" ht="162">
-      <c r="A20" s="25"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="12" t="s">
         <v>66</v>
       </c>
@@ -2652,7 +3384,7 @@
       <c r="H20" s="21"/>
     </row>
     <row r="21" spans="1:8" ht="229.5">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="28" t="s">
         <v>81</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -2676,14 +3408,14 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="202.5">
-      <c r="A22" s="29"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="7" t="s">
         <v>84</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="29" t="s">
         <v>305</v>
       </c>
       <c r="E22" s="7" t="s">
@@ -2696,14 +3428,14 @@
       <c r="H22" s="20"/>
     </row>
     <row r="23" spans="1:8" ht="175.5">
-      <c r="A23" s="29"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="7" t="s">
         <v>86</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="24"/>
+      <c r="D23" s="30"/>
       <c r="E23" s="7" t="s">
         <v>95</v>
       </c>
@@ -2716,14 +3448,14 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="148.5">
-      <c r="A24" s="29"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="7" t="s">
         <v>88</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D24" s="24"/>
+      <c r="D24" s="30"/>
       <c r="E24" s="7" t="s">
         <v>100</v>
       </c>
@@ -2736,14 +3468,14 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="67.5">
-      <c r="A25" s="29"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="7" t="s">
         <v>90</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D25" s="24"/>
+      <c r="D25" s="30"/>
       <c r="E25" s="7" t="s">
         <v>103</v>
       </c>
@@ -2756,14 +3488,14 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="148.5">
-      <c r="A26" s="29"/>
+      <c r="A26" s="28"/>
       <c r="B26" s="7" t="s">
         <v>91</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D26" s="24"/>
+      <c r="D26" s="30"/>
       <c r="E26" s="7" t="s">
         <v>105</v>
       </c>
@@ -2776,10 +3508,10 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="94.5">
-      <c r="A27" s="29"/>
+      <c r="A27" s="28"/>
       <c r="B27" s="7"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="24"/>
+      <c r="D27" s="30"/>
       <c r="E27" s="15" t="s">
         <v>98</v>
       </c>
@@ -2790,7 +3522,7 @@
       <c r="H27" s="20"/>
     </row>
     <row r="28" spans="1:8" ht="202.5">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="28" t="s">
         <v>107</v>
       </c>
       <c r="B28" s="7" t="s">
@@ -2799,7 +3531,7 @@
       <c r="C28" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D28" s="24"/>
+      <c r="D28" s="30"/>
       <c r="E28" s="7" t="s">
         <v>82</v>
       </c>
@@ -2812,14 +3544,14 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="175.5">
-      <c r="A29" s="29"/>
+      <c r="A29" s="28"/>
       <c r="B29" s="7" t="s">
         <v>110</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D29" s="24"/>
+      <c r="D29" s="30"/>
       <c r="E29" s="7" t="s">
         <v>58</v>
       </c>
@@ -2832,14 +3564,14 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="121.5">
-      <c r="A30" s="29"/>
+      <c r="A30" s="28"/>
       <c r="B30" s="7" t="s">
         <v>64</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="D30" s="24"/>
+      <c r="D30" s="30"/>
       <c r="E30" s="7" t="s">
         <v>130</v>
       </c>
@@ -2854,14 +3586,14 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="94.5">
-      <c r="A31" s="29"/>
+      <c r="A31" s="28"/>
       <c r="B31" s="7" t="s">
         <v>113</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D31" s="24"/>
+      <c r="D31" s="30"/>
       <c r="E31" s="7" t="s">
         <v>141</v>
       </c>
@@ -2872,14 +3604,14 @@
       <c r="H31" s="20"/>
     </row>
     <row r="32" spans="1:8" ht="216">
-      <c r="A32" s="29"/>
+      <c r="A32" s="28"/>
       <c r="B32" s="7" t="s">
         <v>105</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D32" s="25"/>
+      <c r="D32" s="31"/>
       <c r="E32" s="7" t="s">
         <v>143</v>
       </c>
@@ -2892,7 +3624,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="135">
-      <c r="A33" s="29"/>
+      <c r="A33" s="28"/>
       <c r="B33" s="7" t="s">
         <v>116</v>
       </c>
@@ -2914,7 +3646,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="135">
-      <c r="A34" s="29"/>
+      <c r="A34" s="28"/>
       <c r="B34" s="7" t="s">
         <v>118</v>
       </c>
@@ -2936,7 +3668,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="135">
-      <c r="A35" s="29"/>
+      <c r="A35" s="28"/>
       <c r="B35" s="7" t="s">
         <v>120</v>
       </c>
@@ -2958,7 +3690,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="94.5">
-      <c r="A36" s="29"/>
+      <c r="A36" s="28"/>
       <c r="B36" s="7" t="s">
         <v>122</v>
       </c>
@@ -2980,7 +3712,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="27">
-      <c r="A37" s="29"/>
+      <c r="A37" s="28"/>
       <c r="B37" s="10" t="s">
         <v>124</v>
       </c>
@@ -2996,7 +3728,7 @@
       <c r="H37" s="20"/>
     </row>
     <row r="38" spans="1:8" ht="54">
-      <c r="A38" s="29"/>
+      <c r="A38" s="28"/>
       <c r="B38" s="7"/>
       <c r="C38" s="8"/>
       <c r="D38" s="7"/>
@@ -3022,7 +3754,7 @@
       <c r="H39" s="22"/>
     </row>
     <row r="40" spans="1:8" ht="40.5">
-      <c r="A40" s="29" t="s">
+      <c r="A40" s="28" t="s">
         <v>156</v>
       </c>
       <c r="B40" s="12" t="s">
@@ -3031,41 +3763,41 @@
       <c r="C40" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="D40" s="29" t="s">
+      <c r="D40" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="E40" s="29" t="s">
+      <c r="E40" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="F40" s="28" t="s">
+      <c r="F40" s="34" t="s">
         <v>155</v>
       </c>
       <c r="G40" s="9"/>
       <c r="H40" s="20"/>
     </row>
     <row r="41" spans="1:8" ht="81">
-      <c r="A41" s="29"/>
+      <c r="A41" s="28"/>
       <c r="B41" s="7" t="s">
         <v>159</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="34"/>
       <c r="G41" s="9"/>
       <c r="H41" s="20"/>
     </row>
     <row r="42" spans="1:8" ht="135">
-      <c r="A42" s="29"/>
+      <c r="A42" s="28"/>
       <c r="B42" s="7" t="s">
         <v>161</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D42" s="29"/>
+      <c r="D42" s="28"/>
       <c r="E42" s="7" t="s">
         <v>165</v>
       </c>
@@ -3078,14 +3810,14 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="81">
-      <c r="A43" s="29"/>
+      <c r="A43" s="28"/>
       <c r="B43" s="7" t="s">
         <v>163</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="D43" s="29"/>
+      <c r="D43" s="28"/>
       <c r="E43" s="7" t="s">
         <v>166</v>
       </c>
@@ -3098,7 +3830,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="148.5">
-      <c r="A44" s="29" t="s">
+      <c r="A44" s="28" t="s">
         <v>169</v>
       </c>
       <c r="B44" s="7" t="s">
@@ -3107,7 +3839,7 @@
       <c r="C44" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="D44" s="23" t="s">
+      <c r="D44" s="29" t="s">
         <v>186</v>
       </c>
       <c r="E44" s="7" t="s">
@@ -3122,14 +3854,14 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="54">
-      <c r="A45" s="29"/>
+      <c r="A45" s="28"/>
       <c r="B45" s="7" t="s">
         <v>172</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="D45" s="24"/>
+      <c r="D45" s="30"/>
       <c r="E45" s="7" t="s">
         <v>189</v>
       </c>
@@ -3142,14 +3874,14 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="135">
-      <c r="A46" s="29"/>
+      <c r="A46" s="28"/>
       <c r="B46" s="7" t="s">
         <v>174</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="D46" s="24"/>
+      <c r="D46" s="30"/>
       <c r="E46" s="7" t="s">
         <v>174</v>
       </c>
@@ -3162,14 +3894,14 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="189">
-      <c r="A47" s="29"/>
+      <c r="A47" s="28"/>
       <c r="B47" s="7" t="s">
         <v>175</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="D47" s="24"/>
+      <c r="D47" s="30"/>
       <c r="E47" s="7" t="s">
         <v>193</v>
       </c>
@@ -3180,14 +3912,14 @@
       <c r="H47" s="20"/>
     </row>
     <row r="48" spans="1:8" ht="175.5">
-      <c r="A48" s="29"/>
+      <c r="A48" s="28"/>
       <c r="B48" s="7" t="s">
         <v>177</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="D48" s="25"/>
+      <c r="D48" s="31"/>
       <c r="E48" s="7" t="s">
         <v>195</v>
       </c>
@@ -3200,14 +3932,14 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="108">
-      <c r="A49" s="29"/>
+      <c r="A49" s="28"/>
       <c r="B49" s="7" t="s">
         <v>179</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="D49" s="29" t="s">
+      <c r="D49" s="28" t="s">
         <v>197</v>
       </c>
       <c r="E49" s="7" t="s">
@@ -3222,14 +3954,14 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="94.5">
-      <c r="A50" s="29"/>
+      <c r="A50" s="28"/>
       <c r="B50" s="7" t="s">
         <v>181</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="D50" s="29"/>
+      <c r="D50" s="28"/>
       <c r="E50" s="7" t="s">
         <v>198</v>
       </c>
@@ -3242,14 +3974,14 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="216">
-      <c r="A51" s="29"/>
+      <c r="A51" s="28"/>
       <c r="B51" s="8" t="s">
         <v>309</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D51" s="29"/>
+      <c r="D51" s="28"/>
       <c r="E51" s="8" t="s">
         <v>310</v>
       </c>
@@ -3262,14 +3994,14 @@
       </c>
     </row>
     <row r="52" spans="1:8" ht="121.5">
-      <c r="A52" s="29"/>
+      <c r="A52" s="28"/>
       <c r="B52" s="7" t="s">
         <v>184</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D52" s="29"/>
+      <c r="D52" s="28"/>
       <c r="E52" s="7" t="s">
         <v>184</v>
       </c>
@@ -3284,7 +4016,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" ht="216">
-      <c r="A53" s="29" t="s">
+      <c r="A53" s="28" t="s">
         <v>204</v>
       </c>
       <c r="B53" s="7" t="s">
@@ -3293,7 +4025,7 @@
       <c r="C53" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="D53" s="23" t="s">
+      <c r="D53" s="29" t="s">
         <v>225</v>
       </c>
       <c r="E53" s="8" t="s">
@@ -3308,14 +4040,14 @@
       </c>
     </row>
     <row r="54" spans="1:8" ht="256.5">
-      <c r="A54" s="29"/>
+      <c r="A54" s="28"/>
       <c r="B54" s="7" t="s">
         <v>207</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="D54" s="24"/>
+      <c r="D54" s="30"/>
       <c r="E54" s="7" t="s">
         <v>207</v>
       </c>
@@ -3328,14 +4060,14 @@
       </c>
     </row>
     <row r="55" spans="1:8" ht="121.5">
-      <c r="A55" s="29"/>
+      <c r="A55" s="28"/>
       <c r="B55" s="7" t="s">
         <v>209</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="D55" s="24"/>
+      <c r="D55" s="30"/>
       <c r="E55" s="7" t="s">
         <v>227</v>
       </c>
@@ -3348,14 +4080,14 @@
       </c>
     </row>
     <row r="56" spans="1:8" ht="189">
-      <c r="A56" s="29"/>
+      <c r="A56" s="28"/>
       <c r="B56" s="7" t="s">
         <v>211</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="D56" s="24"/>
+      <c r="D56" s="30"/>
       <c r="E56" s="7" t="s">
         <v>229</v>
       </c>
@@ -3370,14 +4102,14 @@
       </c>
     </row>
     <row r="57" spans="1:8" ht="94.5">
-      <c r="A57" s="29"/>
+      <c r="A57" s="28"/>
       <c r="B57" s="7" t="s">
         <v>213</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="D57" s="24"/>
+      <c r="D57" s="30"/>
       <c r="E57" s="7" t="s">
         <v>213</v>
       </c>
@@ -3390,14 +4122,14 @@
       </c>
     </row>
     <row r="58" spans="1:8" ht="108">
-      <c r="A58" s="29"/>
+      <c r="A58" s="28"/>
       <c r="B58" s="7" t="s">
         <v>215</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="D58" s="24"/>
+      <c r="D58" s="30"/>
       <c r="E58" s="7" t="s">
         <v>234</v>
       </c>
@@ -3410,14 +4142,14 @@
       </c>
     </row>
     <row r="59" spans="1:8" ht="175.5">
-      <c r="A59" s="29"/>
+      <c r="A59" s="28"/>
       <c r="B59" s="7" t="s">
         <v>217</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="D59" s="24"/>
+      <c r="D59" s="30"/>
       <c r="E59" s="7" t="s">
         <v>237</v>
       </c>
@@ -3432,14 +4164,14 @@
       </c>
     </row>
     <row r="60" spans="1:8" ht="162">
-      <c r="A60" s="29"/>
+      <c r="A60" s="28"/>
       <c r="B60" s="7" t="s">
         <v>219</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="D60" s="24"/>
+      <c r="D60" s="30"/>
       <c r="E60" s="7" t="s">
         <v>240</v>
       </c>
@@ -3452,14 +4184,14 @@
       </c>
     </row>
     <row r="61" spans="1:8" ht="148.5">
-      <c r="A61" s="29"/>
+      <c r="A61" s="28"/>
       <c r="B61" s="7" t="s">
         <v>221</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="D61" s="24"/>
+      <c r="D61" s="30"/>
       <c r="E61" s="7" t="s">
         <v>245</v>
       </c>
@@ -3472,14 +4204,14 @@
       </c>
     </row>
     <row r="62" spans="1:8" ht="81">
-      <c r="A62" s="29"/>
+      <c r="A62" s="28"/>
       <c r="B62" s="7" t="s">
         <v>223</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="D62" s="25"/>
+      <c r="D62" s="31"/>
       <c r="E62" s="7" t="s">
         <v>247</v>
       </c>
@@ -3492,7 +4224,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" ht="202.5">
-      <c r="A63" s="23" t="s">
+      <c r="A63" s="29" t="s">
         <v>249</v>
       </c>
       <c r="B63" s="7" t="s">
@@ -3501,7 +4233,7 @@
       <c r="C63" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="D63" s="23" t="s">
+      <c r="D63" s="29" t="s">
         <v>278</v>
       </c>
       <c r="E63" s="7" t="s">
@@ -3516,14 +4248,14 @@
       </c>
     </row>
     <row r="64" spans="1:8" ht="162">
-      <c r="A64" s="24"/>
+      <c r="A64" s="30"/>
       <c r="B64" s="7" t="s">
         <v>252</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="D64" s="24"/>
+      <c r="D64" s="30"/>
       <c r="E64" s="7" t="s">
         <v>252</v>
       </c>
@@ -3536,14 +4268,14 @@
       </c>
     </row>
     <row r="65" spans="1:8" ht="297">
-      <c r="A65" s="24"/>
+      <c r="A65" s="30"/>
       <c r="B65" s="7" t="s">
         <v>254</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="D65" s="24"/>
+      <c r="D65" s="30"/>
       <c r="E65" s="7" t="s">
         <v>254</v>
       </c>
@@ -3556,14 +4288,14 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="243">
-      <c r="A66" s="24"/>
+      <c r="A66" s="30"/>
       <c r="B66" s="7" t="s">
         <v>256</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="D66" s="24"/>
+      <c r="D66" s="30"/>
       <c r="E66" s="7" t="s">
         <v>284</v>
       </c>
@@ -3576,14 +4308,14 @@
       </c>
     </row>
     <row r="67" spans="1:8" ht="67.5">
-      <c r="A67" s="24"/>
+      <c r="A67" s="30"/>
       <c r="B67" s="7" t="s">
         <v>258</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="D67" s="24"/>
+      <c r="D67" s="30"/>
       <c r="E67" s="7"/>
       <c r="F67" s="8"/>
       <c r="G67" s="9" t="s">
@@ -3592,14 +4324,14 @@
       <c r="H67" s="20"/>
     </row>
     <row r="68" spans="1:8" ht="409.5">
-      <c r="A68" s="24"/>
+      <c r="A68" s="30"/>
       <c r="B68" s="8" t="s">
         <v>260</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="D68" s="24"/>
+      <c r="D68" s="30"/>
       <c r="E68" s="8" t="s">
         <v>289</v>
       </c>
@@ -3612,14 +4344,14 @@
       </c>
     </row>
     <row r="69" spans="1:8" ht="202.5">
-      <c r="A69" s="24"/>
+      <c r="A69" s="30"/>
       <c r="B69" s="8" t="s">
         <v>262</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="D69" s="24"/>
+      <c r="D69" s="30"/>
       <c r="E69" s="7" t="s">
         <v>291</v>
       </c>
@@ -3632,14 +4364,14 @@
       </c>
     </row>
     <row r="70" spans="1:8" ht="67.5">
-      <c r="A70" s="24"/>
+      <c r="A70" s="30"/>
       <c r="B70" s="7" t="s">
         <v>264</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="D70" s="24"/>
+      <c r="D70" s="30"/>
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
       <c r="G70" s="9" t="s">
@@ -3648,14 +4380,14 @@
       <c r="H70" s="20"/>
     </row>
     <row r="71" spans="1:8" ht="27">
-      <c r="A71" s="24"/>
+      <c r="A71" s="30"/>
       <c r="B71" s="7" t="s">
         <v>266</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="D71" s="24"/>
+      <c r="D71" s="30"/>
       <c r="E71" s="7" t="s">
         <v>293</v>
       </c>
@@ -3666,14 +4398,14 @@
       <c r="H71" s="20"/>
     </row>
     <row r="72" spans="1:8" ht="175.5">
-      <c r="A72" s="24"/>
+      <c r="A72" s="30"/>
       <c r="B72" s="7" t="s">
         <v>268</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="D72" s="24"/>
+      <c r="D72" s="30"/>
       <c r="E72" s="7" t="s">
         <v>295</v>
       </c>
@@ -3686,14 +4418,14 @@
       </c>
     </row>
     <row r="73" spans="1:8" ht="216">
-      <c r="A73" s="24"/>
+      <c r="A73" s="30"/>
       <c r="B73" s="7" t="s">
         <v>270</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="D73" s="24"/>
+      <c r="D73" s="30"/>
       <c r="E73" s="7" t="s">
         <v>270</v>
       </c>
@@ -3706,14 +4438,14 @@
       </c>
     </row>
     <row r="74" spans="1:8" ht="270">
-      <c r="A74" s="24"/>
+      <c r="A74" s="30"/>
       <c r="B74" s="7" t="s">
         <v>272</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="D74" s="24"/>
+      <c r="D74" s="30"/>
       <c r="E74" s="7" t="s">
         <v>272</v>
       </c>
@@ -3726,14 +4458,14 @@
       </c>
     </row>
     <row r="75" spans="1:8" ht="175.5">
-      <c r="A75" s="24"/>
+      <c r="A75" s="30"/>
       <c r="B75" s="7" t="s">
         <v>275</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="D75" s="24"/>
+      <c r="D75" s="30"/>
       <c r="E75" s="7" t="s">
         <v>299</v>
       </c>
@@ -3746,14 +4478,14 @@
       </c>
     </row>
     <row r="76" spans="1:8" ht="148.5">
-      <c r="A76" s="25"/>
+      <c r="A76" s="31"/>
       <c r="B76" s="10" t="s">
         <v>276</v>
       </c>
       <c r="C76" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="D76" s="25"/>
+      <c r="D76" s="31"/>
       <c r="E76" s="7"/>
       <c r="F76" s="7"/>
       <c r="G76" s="9" t="s">
@@ -3763,11 +4495,10 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="D3:D12"/>
-    <mergeCell ref="A44:A52"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="E40:E41"/>
     <mergeCell ref="A53:A62"/>
     <mergeCell ref="A13:A20"/>
     <mergeCell ref="A63:A76"/>
@@ -3780,10 +4511,11 @@
     <mergeCell ref="D22:D32"/>
     <mergeCell ref="D44:D48"/>
     <mergeCell ref="D53:D62"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="D3:D12"/>
+    <mergeCell ref="A44:A52"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
